--- a/public/sample_jobs.xlsx
+++ b/public/sample_jobs.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BF0921-EAD4-4E18-BE26-8FA2C9100989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>description</t>
   </si>
@@ -89,16 +90,40 @@
   </si>
   <si>
     <t>Thane</t>
+  </si>
+  <si>
+    <t>departmentId</t>
+  </si>
+  <si>
+    <t>companyId</t>
+  </si>
+  <si>
+    <t>f970b3d-5a2b-4b25-9b2e-c3b73d30a5c3</t>
+  </si>
+  <si>
+    <t>f970b3d-5a2b-4b25-9b2e-c3b73d30a5c4</t>
+  </si>
+  <si>
+    <t>f970b3d-5a2b-4b25-9b2e-c3b73d30a5c5</t>
+  </si>
+  <si>
+    <t>f970b3d-5a2b-4b25-9b2e-c3b73d30a5c6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -405,141 +430,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" customWidth="1"/>
-    <col min="7" max="7" width="43.7109375" customWidth="1"/>
-    <col min="8" max="8" width="42.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="43.85546875" customWidth="1"/>
+    <col min="9" max="9" width="43.7109375" customWidth="1"/>
+    <col min="10" max="10" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>43434324</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>343434343</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>7878787</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>909090909</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>